--- a/RandomRows/csv_example/D2_160125.xlsx
+++ b/RandomRows/csv_example/D2_160125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert/projects/python-utility/RandomRows/csv_example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD00794F-480F-3845-98FF-B5486EA70099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A76E5-5EB1-4343-9B0A-2A6D2F7B742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19660" xr2:uid="{5EEB8695-3F72-4148-BAD3-3A9CD5289FE8}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="B1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AA5955-DD36-6645-B093-E1B4289EBBC2}">
   <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="G1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6883,7 +6883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039B52D6-9F2A-484F-89B4-A7D572B08649}">
   <dimension ref="B1:P157"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScale="66" workbookViewId="0">
       <selection activeCell="P142" sqref="P2:P142"/>
     </sheetView>
   </sheetViews>
@@ -15239,7 +15239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1025280F-6AD3-E245-AAB2-B79AB98C4FB0}">
   <dimension ref="B1:P181"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
+    <sheetView topLeftCell="A131" zoomScale="67" workbookViewId="0">
       <selection activeCell="P169" sqref="P2:P169"/>
     </sheetView>
   </sheetViews>
@@ -23079,7 +23079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0F188-D523-6743-9B79-E3A02B01998C}">
   <dimension ref="B1:P116"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="56" workbookViewId="0">
       <selection activeCell="P101" sqref="P2:P101"/>
     </sheetView>
   </sheetViews>
@@ -27887,7 +27887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC09E9-9679-DD40-8805-40E0049A75D2}">
   <dimension ref="B1:P83"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="87" workbookViewId="0">
       <selection activeCell="P69" sqref="P2:P69"/>
     </sheetView>
   </sheetViews>
